--- a/data/fk_constraints_data.xlsx
+++ b/data/fk_constraints_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giova\KaggleMetaDataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giova\KaggleTorrent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9E2683-1129-4751-A12D-D245AA07CF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71395782-1AD7-4226-AC4E-82C5FA1AF052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="624" windowWidth="17280" windowHeight="9072" xr2:uid="{E846E4E4-AA96-5B4E-9EB2-B209754157FA}"/>
+    <workbookView xWindow="3936" yWindow="972" windowWidth="17280" windowHeight="9072" xr2:uid="{E846E4E4-AA96-5B4E-9EB2-B209754157FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="74">
   <si>
     <t>Table</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>FromUserId</t>
+  </si>
+  <si>
+    <t>IsSolved</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585B8521-06F1-7E41-B63D-617AC288A1C7}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1314,8 +1317,11 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -1343,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>69</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
